--- a/Code/Results/Cases/Case_3_107/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_107/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.96988845202305</v>
+        <v>11.52589072752721</v>
       </c>
       <c r="C2">
-        <v>7.374703979982019</v>
+        <v>9.327864458967298</v>
       </c>
       <c r="D2">
-        <v>5.195584851798993</v>
+        <v>5.635391328243341</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.16967838874725</v>
+        <v>26.95649362286134</v>
       </c>
       <c r="G2">
-        <v>2.098439814840479</v>
+        <v>3.653003339112604</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.56586074073748</v>
+        <v>24.68767083849919</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.93575208486003</v>
+        <v>8.616769373253556</v>
       </c>
       <c r="L2">
-        <v>7.127778130271762</v>
+        <v>11.0800575026089</v>
       </c>
       <c r="M2">
-        <v>10.06809611809751</v>
+        <v>14.39478059419321</v>
       </c>
       <c r="N2">
-        <v>12.87460355876443</v>
+        <v>19.89759458299134</v>
       </c>
       <c r="O2">
-        <v>15.72060741468322</v>
+        <v>24.21293480060377</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.09860508703858</v>
+        <v>11.29816485131697</v>
       </c>
       <c r="C3">
-        <v>7.291810134792461</v>
+        <v>9.305270544962809</v>
       </c>
       <c r="D3">
-        <v>5.037011987077141</v>
+        <v>5.579866193628829</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.88047928437853</v>
+        <v>26.9885128249812</v>
       </c>
       <c r="G3">
-        <v>2.102662500660595</v>
+        <v>3.654639568776583</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.65899163406398</v>
+        <v>24.76669235662604</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.32831448980627</v>
+        <v>8.445337834980247</v>
       </c>
       <c r="L3">
-        <v>7.021681979574733</v>
+        <v>11.0876034429498</v>
       </c>
       <c r="M3">
-        <v>9.728490746779302</v>
+        <v>14.36206386437603</v>
       </c>
       <c r="N3">
-        <v>13.06424143455798</v>
+        <v>19.9552531405293</v>
       </c>
       <c r="O3">
-        <v>15.70321362210562</v>
+        <v>24.27748628428855</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.53165408119729</v>
+        <v>11.15807040718629</v>
       </c>
       <c r="C4">
-        <v>7.240497374332248</v>
+        <v>9.291267010532584</v>
       </c>
       <c r="D4">
-        <v>4.936417570434483</v>
+        <v>5.544901278840164</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.71595288936435</v>
+        <v>27.01434453901285</v>
       </c>
       <c r="G4">
-        <v>2.105341992156496</v>
+        <v>3.65569846970947</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.72616718856038</v>
+        <v>24.81926132713584</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.936143880415608</v>
+        <v>8.339657132723897</v>
       </c>
       <c r="L4">
-        <v>6.959266535247739</v>
+        <v>11.09391644663053</v>
       </c>
       <c r="M4">
-        <v>9.517829514682678</v>
+        <v>14.34411936345656</v>
       </c>
       <c r="N4">
-        <v>13.18342546981814</v>
+        <v>19.99232466957786</v>
       </c>
       <c r="O4">
-        <v>15.70386373310348</v>
+        <v>24.32158993867182</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.29253336571047</v>
+        <v>11.10099301625842</v>
       </c>
       <c r="C5">
-        <v>7.219490450783406</v>
+        <v>9.285528696986566</v>
       </c>
       <c r="D5">
-        <v>4.894645955386286</v>
+        <v>5.530439247176644</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.65218864932743</v>
+        <v>27.02642187991433</v>
       </c>
       <c r="G5">
-        <v>2.106456104515867</v>
+        <v>3.656143663142726</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.75596860091257</v>
+        <v>24.84170157675592</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.771560004561842</v>
+        <v>8.296544477555001</v>
       </c>
       <c r="L5">
-        <v>6.934534448288162</v>
+        <v>11.09691203313343</v>
       </c>
       <c r="M5">
-        <v>9.431574109284842</v>
+        <v>14.33735138603994</v>
       </c>
       <c r="N5">
-        <v>13.23270237677232</v>
+        <v>20.00785249128133</v>
       </c>
       <c r="O5">
-        <v>15.70688854294026</v>
+        <v>24.34068507580309</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.25233810405366</v>
+        <v>11.09151847168222</v>
       </c>
       <c r="C6">
-        <v>7.21599667230398</v>
+        <v>9.284573968898574</v>
       </c>
       <c r="D6">
-        <v>4.887663833939746</v>
+        <v>5.528025111454759</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>18.64179868248102</v>
+        <v>27.02852092453921</v>
       </c>
       <c r="G6">
-        <v>2.106642453722557</v>
+        <v>3.656218414790145</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.76106121824894</v>
+        <v>24.84548923704871</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.743944804130646</v>
+        <v>8.289384571732931</v>
       </c>
       <c r="L6">
-        <v>6.930470601488341</v>
+        <v>11.09743501064643</v>
       </c>
       <c r="M6">
-        <v>9.417230722294686</v>
+        <v>14.33626061087448</v>
       </c>
       <c r="N6">
-        <v>13.24092807214236</v>
+        <v>20.01045632934239</v>
       </c>
       <c r="O6">
-        <v>15.70755486230065</v>
+        <v>24.34392357137574</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.5284620012577</v>
+        <v>11.15730048491792</v>
       </c>
       <c r="C7">
-        <v>7.240214447895682</v>
+        <v>9.29118974874075</v>
       </c>
       <c r="D7">
-        <v>4.935857329401805</v>
+        <v>5.5447070957426</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.71507966111486</v>
+        <v>27.01450114157081</v>
       </c>
       <c r="G7">
-        <v>2.105356927086817</v>
+        <v>3.655704418288181</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.72655938616657</v>
+        <v>24.81955984287831</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.933943475597921</v>
+        <v>8.339075811358814</v>
       </c>
       <c r="L7">
-        <v>6.958930123549235</v>
+        <v>11.0939551327905</v>
       </c>
       <c r="M7">
-        <v>9.516667722840603</v>
+        <v>14.34402587631054</v>
       </c>
       <c r="N7">
-        <v>13.18408714358128</v>
+        <v>19.99253237751809</v>
       </c>
       <c r="O7">
-        <v>15.70389347104491</v>
+        <v>24.32184291886957</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.67608175216191</v>
+        <v>11.44747431832478</v>
       </c>
       <c r="C8">
-        <v>7.346213115427613</v>
+        <v>9.32010189555886</v>
       </c>
       <c r="D8">
-        <v>5.141598492336137</v>
+        <v>5.616430736034845</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>19.06725980716578</v>
+        <v>26.96625230881523</v>
       </c>
       <c r="G8">
-        <v>2.099878029422086</v>
+        <v>3.653556276540449</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.59584570396211</v>
+        <v>24.71407682330308</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.73032231861774</v>
+        <v>8.557782067429146</v>
       </c>
       <c r="L8">
-        <v>7.090640494332668</v>
+        <v>11.08231109396254</v>
       </c>
       <c r="M8">
-        <v>9.951519297030558</v>
+        <v>14.38305835853915</v>
       </c>
       <c r="N8">
-        <v>12.93943195418755</v>
+        <v>19.91712959274892</v>
       </c>
       <c r="O8">
-        <v>15.71220544262391</v>
+        <v>24.23426397896544</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.674747261808</v>
+        <v>12.01094996203841</v>
       </c>
       <c r="C9">
-        <v>7.550450568036046</v>
+        <v>9.375712585424688</v>
       </c>
       <c r="D9">
-        <v>5.518117011732738</v>
+        <v>5.749912695028844</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.860811148229</v>
+        <v>26.92064009540286</v>
       </c>
       <c r="G9">
-        <v>2.089803977660229</v>
+        <v>3.649772338058537</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.42279399634026</v>
+        <v>24.53936835147679</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.13791479875679</v>
+        <v>8.980818118703283</v>
       </c>
       <c r="L9">
-        <v>7.369769447551115</v>
+        <v>11.07277594381147</v>
       </c>
       <c r="M9">
-        <v>10.78211582294846</v>
+        <v>14.47635225408601</v>
       </c>
       <c r="N9">
-        <v>12.48058843971678</v>
+        <v>19.78245136393314</v>
       </c>
       <c r="O9">
-        <v>15.82228679526807</v>
+        <v>24.09802936059841</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.9923737690104</v>
+        <v>12.41716661653795</v>
       </c>
       <c r="C10">
-        <v>7.697891866785721</v>
+        <v>9.415844783084653</v>
       </c>
       <c r="D10">
-        <v>5.776794801392185</v>
+        <v>5.843292735488368</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.50527253710814</v>
+        <v>26.91701493688197</v>
       </c>
       <c r="G10">
-        <v>2.082784397712926</v>
+        <v>3.647250905934647</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.35209362952944</v>
+        <v>24.43062262284961</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.07667745732381</v>
+        <v>9.284850873073635</v>
       </c>
       <c r="L10">
-        <v>7.586424531249106</v>
+        <v>11.07383337842891</v>
       </c>
       <c r="M10">
-        <v>11.37275401398531</v>
+        <v>14.55473829292453</v>
       </c>
       <c r="N10">
-        <v>12.15496536367609</v>
+        <v>19.69146242181452</v>
       </c>
       <c r="O10">
-        <v>15.96547331484288</v>
+        <v>24.01964767087606</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.55965250650631</v>
+        <v>12.59941509284374</v>
       </c>
       <c r="C11">
-        <v>7.764325192187621</v>
+        <v>9.433931038472352</v>
       </c>
       <c r="D11">
-        <v>5.890313632114689</v>
+        <v>5.884690565140672</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.81138786208003</v>
+        <v>26.92184485526328</v>
       </c>
       <c r="G11">
-        <v>2.079667741955989</v>
+        <v>3.646159439857997</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.33346259580741</v>
+        <v>24.38541363649436</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.48292830918202</v>
+        <v>9.421063317050846</v>
       </c>
       <c r="L11">
-        <v>7.687252816650873</v>
+        <v>11.0760534795724</v>
       </c>
       <c r="M11">
-        <v>11.6361325519804</v>
+        <v>14.59244892346871</v>
       </c>
       <c r="N11">
-        <v>12.00903036647167</v>
+        <v>19.65178045748404</v>
       </c>
       <c r="O11">
-        <v>16.04518362071111</v>
+        <v>23.98871546548772</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.76989710606421</v>
+        <v>12.66799550520874</v>
       </c>
       <c r="C12">
-        <v>7.789384357079511</v>
+        <v>9.440754159858486</v>
       </c>
       <c r="D12">
-        <v>5.932684416337116</v>
+        <v>5.900206045138713</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.92912694877883</v>
+        <v>26.92460342124934</v>
       </c>
       <c r="G12">
-        <v>2.078498026684493</v>
+        <v>3.645754075184873</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.32846204007742</v>
+        <v>24.36890709321074</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.63377513878529</v>
+        <v>9.472293699336573</v>
       </c>
       <c r="L12">
-        <v>7.725739645571025</v>
+        <v>11.07714303237736</v>
       </c>
       <c r="M12">
-        <v>11.73503045256105</v>
+        <v>14.60701616660779</v>
       </c>
       <c r="N12">
-        <v>11.95405837556029</v>
+        <v>19.63699848301474</v>
       </c>
       <c r="O12">
-        <v>16.07754417903497</v>
+        <v>23.97768231150702</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.72481973480899</v>
+        <v>12.65324578404079</v>
       </c>
       <c r="C13">
-        <v>7.783991848405927</v>
+        <v>9.439285844554258</v>
       </c>
       <c r="D13">
-        <v>5.923586794346039</v>
+        <v>5.89687175433505</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.90368947008314</v>
+        <v>26.92396801206593</v>
       </c>
       <c r="G13">
-        <v>2.078749487606937</v>
+        <v>3.645841024744451</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.32944585922243</v>
+        <v>24.37243479565937</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.601420571218</v>
+        <v>9.461276652304736</v>
       </c>
       <c r="L13">
-        <v>7.717437567743874</v>
+        <v>11.07689733093213</v>
       </c>
       <c r="M13">
-        <v>11.71376936199759</v>
+        <v>14.60386621618657</v>
       </c>
       <c r="N13">
-        <v>11.96588507198813</v>
+        <v>19.6401711786102</v>
       </c>
       <c r="O13">
-        <v>16.07047673376834</v>
+        <v>23.98002823368709</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.57704080536869</v>
+        <v>12.60506629834265</v>
       </c>
       <c r="C14">
-        <v>7.766388813806302</v>
+        <v>9.434492904302253</v>
       </c>
       <c r="D14">
-        <v>5.893811953123433</v>
+        <v>5.885970290206194</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.82103809912562</v>
+        <v>26.92205318842012</v>
       </c>
       <c r="G14">
-        <v>2.079571301519674</v>
+        <v>3.646125931150015</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.33300938691537</v>
+        <v>24.38404334241691</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.49539850609632</v>
+        <v>9.425285363640528</v>
       </c>
       <c r="L14">
-        <v>7.690413150513044</v>
+        <v>11.07613813790749</v>
       </c>
       <c r="M14">
-        <v>11.64428612420107</v>
+        <v>14.59364167406574</v>
       </c>
       <c r="N14">
-        <v>12.00450211468475</v>
+        <v>19.65055943705923</v>
       </c>
       <c r="O14">
-        <v>16.04780188539762</v>
+        <v>23.98779412438246</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.48592799880653</v>
+        <v>12.57549662696183</v>
       </c>
       <c r="C15">
-        <v>7.755593561951832</v>
+        <v>9.431553697933763</v>
       </c>
       <c r="D15">
-        <v>5.875493222806363</v>
+        <v>5.879271703931242</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.77064748214204</v>
+        <v>26.92100128853612</v>
       </c>
       <c r="G15">
-        <v>2.080076037110869</v>
+        <v>3.646301478743407</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.33546299663205</v>
+        <v>24.39123377429829</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.43006742498529</v>
+        <v>9.403192628539635</v>
       </c>
       <c r="L15">
-        <v>7.673899062511547</v>
+        <v>11.07570547917133</v>
       </c>
       <c r="M15">
-        <v>11.60161448405412</v>
+        <v>14.58741598262961</v>
       </c>
       <c r="N15">
-        <v>12.02819322794791</v>
+        <v>19.65695438375715</v>
       </c>
       <c r="O15">
-        <v>16.03419858943995</v>
+        <v>23.99263956316922</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.95465847916876</v>
+        <v>12.40519923194401</v>
       </c>
       <c r="C16">
-        <v>7.693536926054908</v>
+        <v>9.414659270904055</v>
       </c>
       <c r="D16">
-        <v>5.769290799161942</v>
+        <v>5.840565058974771</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.48552415875248</v>
+        <v>26.91682950153741</v>
       </c>
       <c r="G16">
-        <v>2.08298957593502</v>
+        <v>3.647323350315236</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.35359273701682</v>
+        <v>24.4336629046404</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.04970928460782</v>
+        <v>9.275902661698126</v>
       </c>
       <c r="L16">
-        <v>7.579879033752496</v>
+        <v>11.07372318201724</v>
       </c>
       <c r="M16">
-        <v>11.35542819614695</v>
+        <v>14.55231443092822</v>
       </c>
       <c r="N16">
-        <v>12.16454458599527</v>
+        <v>19.69409003568099</v>
       </c>
       <c r="O16">
-        <v>15.96056426418438</v>
+        <v>24.02176430185551</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.62054902167424</v>
+        <v>12.30002693388629</v>
       </c>
       <c r="C17">
-        <v>7.655299255746815</v>
+        <v>9.404250607493369</v>
       </c>
       <c r="D17">
-        <v>5.703060617948521</v>
+        <v>5.816538892960301</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.31389697682014</v>
+        <v>26.91592840674458</v>
       </c>
       <c r="G17">
-        <v>2.084796193169594</v>
+        <v>3.647964435235174</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.3682569861587</v>
+        <v>24.46078327517539</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.81104243406533</v>
+        <v>9.19724217283461</v>
       </c>
       <c r="L17">
-        <v>7.522767130718007</v>
+        <v>11.07295169014272</v>
       </c>
       <c r="M17">
-        <v>11.20298525726295</v>
+        <v>14.53130079636068</v>
       </c>
       <c r="N17">
-        <v>12.24873605091668</v>
+        <v>19.71730859216539</v>
       </c>
       <c r="O17">
-        <v>15.91918292834332</v>
+        <v>24.04084199641327</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.42535231565668</v>
+        <v>12.23929918588959</v>
       </c>
       <c r="C18">
-        <v>7.633246174216045</v>
+        <v>9.398247888569102</v>
       </c>
       <c r="D18">
-        <v>5.664576637854386</v>
+        <v>5.802618227023895</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.21640284049806</v>
+        <v>26.91602012592732</v>
       </c>
       <c r="G18">
-        <v>2.085842552947466</v>
+        <v>3.648338400809354</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.37795838702079</v>
+        <v>24.47678313437756</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.67180965998368</v>
+        <v>9.151804440538081</v>
       </c>
       <c r="L18">
-        <v>7.490132855928668</v>
+        <v>11.07267171906311</v>
       </c>
       <c r="M18">
-        <v>11.11480848953852</v>
+        <v>14.51940800064058</v>
       </c>
       <c r="N18">
-        <v>12.29736870080655</v>
+        <v>19.73082424885085</v>
       </c>
       <c r="O18">
-        <v>15.89674866708781</v>
+        <v>24.05225958336226</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.35874097786098</v>
+        <v>12.21869950730589</v>
       </c>
       <c r="C19">
-        <v>7.625769302454616</v>
+        <v>9.396212774172419</v>
       </c>
       <c r="D19">
-        <v>5.651480234970011</v>
+        <v>5.797887674825325</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.18360400378846</v>
+        <v>26.91615600195897</v>
       </c>
       <c r="G19">
-        <v>2.086198091435058</v>
+        <v>3.648465918619253</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.38145743275157</v>
+        <v>24.48226925688532</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.62433170122615</v>
+        <v>9.136388184169464</v>
       </c>
       <c r="L19">
-        <v>7.479121030270308</v>
+        <v>11.07260508880244</v>
       </c>
       <c r="M19">
-        <v>11.08487068549842</v>
+        <v>14.51541481180697</v>
       </c>
       <c r="N19">
-        <v>12.31387132996889</v>
+        <v>19.73542809559708</v>
       </c>
       <c r="O19">
-        <v>15.88938512673915</v>
+        <v>24.05620171356929</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.65642836575443</v>
+        <v>12.31124757301226</v>
       </c>
       <c r="C20">
-        <v>7.659375953430363</v>
+        <v>9.405360285628523</v>
       </c>
       <c r="D20">
-        <v>5.7101514556879</v>
+        <v>5.819107059491035</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.33204088391149</v>
+        <v>26.9159612095639</v>
       </c>
       <c r="G20">
-        <v>2.084603129896993</v>
+        <v>3.647895649589057</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.36656405061827</v>
+        <v>24.45785476576298</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.83665159245292</v>
+        <v>9.205636191829077</v>
       </c>
       <c r="L20">
-        <v>7.528824696161415</v>
+        <v>11.07301687562455</v>
       </c>
       <c r="M20">
-        <v>11.21926493971817</v>
+        <v>14.53351774484261</v>
       </c>
       <c r="N20">
-        <v>12.23975237972446</v>
+        <v>19.71482028658443</v>
       </c>
       <c r="O20">
-        <v>15.92344595122218</v>
+        <v>24.03876512177284</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.62057075184128</v>
+        <v>12.61923005530549</v>
       </c>
       <c r="C21">
-        <v>7.771561946431918</v>
+        <v>9.435901416260844</v>
       </c>
       <c r="D21">
-        <v>5.902574410356691</v>
+        <v>5.889176726429053</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.8452657596282</v>
+        <v>26.92259041010714</v>
       </c>
       <c r="G21">
-        <v>2.079329634304622</v>
+        <v>3.64604203177388</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.33190605057538</v>
+        <v>24.38061698677733</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.52662092176757</v>
+        <v>9.435866762547548</v>
       </c>
       <c r="L21">
-        <v>7.698342755319766</v>
+        <v>11.07635438801382</v>
       </c>
       <c r="M21">
-        <v>11.66471831787094</v>
+        <v>14.59663714577259</v>
       </c>
       <c r="N21">
-        <v>11.9931516764027</v>
+        <v>19.64750152054732</v>
       </c>
       <c r="O21">
-        <v>16.0544023592169</v>
+        <v>23.98549462711371</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.22406954614477</v>
+        <v>12.81796130084097</v>
       </c>
       <c r="C22">
-        <v>7.844310348553524</v>
+        <v>9.455711108327321</v>
       </c>
       <c r="D22">
-        <v>6.024734505165689</v>
+        <v>5.93403055981931</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.19127553185161</v>
+        <v>26.93233982301554</v>
       </c>
       <c r="G22">
-        <v>2.07594400934042</v>
+        <v>3.644876905920664</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.32128315560264</v>
+        <v>24.33371159494633</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.96012271113096</v>
+        <v>9.584273151955177</v>
       </c>
       <c r="L22">
-        <v>7.810903149434523</v>
+        <v>11.07998546928556</v>
       </c>
       <c r="M22">
-        <v>11.95093701452197</v>
+        <v>14.63955845516631</v>
       </c>
       <c r="N22">
-        <v>11.83366409155976</v>
+        <v>19.60493076164308</v>
       </c>
       <c r="O22">
-        <v>16.15270815090659</v>
+        <v>23.95464433147755</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.90439125305596</v>
+        <v>12.71214960351976</v>
       </c>
       <c r="C23">
-        <v>7.805537212792133</v>
+        <v>9.44515252154406</v>
       </c>
       <c r="D23">
-        <v>5.959870283573953</v>
+        <v>5.910179076805633</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.0056488896923</v>
+        <v>26.92664160683381</v>
       </c>
       <c r="G23">
-        <v>2.077745586724168</v>
+        <v>3.64549452952549</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.32581560461518</v>
+        <v>24.35841869462611</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.73034843966503</v>
+        <v>9.505270085257166</v>
       </c>
       <c r="L23">
-        <v>7.750672343074186</v>
+        <v>11.07791527126168</v>
       </c>
       <c r="M23">
-        <v>11.79864804984237</v>
+        <v>14.61650057932871</v>
       </c>
       <c r="N23">
-        <v>11.91864047157747</v>
+        <v>19.62752145678386</v>
       </c>
       <c r="O23">
-        <v>16.09905113985651</v>
+        <v>23.97074665141936</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.64021701327274</v>
+        <v>12.3061755354113</v>
       </c>
       <c r="C24">
-        <v>7.657533095162443</v>
+        <v>9.404858658112701</v>
       </c>
       <c r="D24">
-        <v>5.706946955343977</v>
+        <v>5.817946326455072</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.32383435544172</v>
+        <v>26.91594447987328</v>
       </c>
       <c r="G24">
-        <v>2.084690389743984</v>
+        <v>3.647926730764545</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.36732547695666</v>
+        <v>24.45917747402341</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.82507998371876</v>
+        <v>9.201841921018481</v>
       </c>
       <c r="L24">
-        <v>7.526085445879784</v>
+        <v>11.07298689567812</v>
       </c>
       <c r="M24">
-        <v>11.21190655679315</v>
+        <v>14.5325148755316</v>
       </c>
       <c r="N24">
-        <v>12.24381317965951</v>
+        <v>19.7159447292557</v>
       </c>
       <c r="O24">
-        <v>15.92151441975399</v>
+        <v>24.03970267649499</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.16073556721787</v>
+        <v>11.85957413722668</v>
       </c>
       <c r="C25">
-        <v>7.495630272809292</v>
+        <v>9.360791130796638</v>
       </c>
       <c r="D25">
-        <v>5.419312302075685</v>
+        <v>5.714603147397083</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>19.63522145951023</v>
+        <v>26.9277294327972</v>
       </c>
       <c r="G25">
-        <v>2.092460219724149</v>
+        <v>3.65075038684534</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.46011927821778</v>
+        <v>24.58318864327425</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.773812357777</v>
+        <v>8.867342055486402</v>
       </c>
       <c r="L25">
-        <v>7.292139965900637</v>
+        <v>11.07393584701468</v>
       </c>
       <c r="M25">
-        <v>10.56046163206125</v>
+        <v>14.44935696434708</v>
       </c>
       <c r="N25">
-        <v>12.60260464248154</v>
+        <v>19.81748196813836</v>
       </c>
       <c r="O25">
-        <v>15.78192605815071</v>
+        <v>24.13107611901283</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_107/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_107/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.52589072752721</v>
+        <v>12.96988845202304</v>
       </c>
       <c r="C2">
-        <v>9.327864458967298</v>
+        <v>7.374703979982391</v>
       </c>
       <c r="D2">
-        <v>5.635391328243341</v>
+        <v>5.19558485179892</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.95649362286134</v>
+        <v>19.16967838874715</v>
       </c>
       <c r="G2">
-        <v>3.653003339112604</v>
+        <v>2.09843981484048</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.68767083849919</v>
+        <v>15.56586074073735</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.616769373253556</v>
+        <v>10.93575208486007</v>
       </c>
       <c r="L2">
-        <v>11.0800575026089</v>
+        <v>7.12777813027176</v>
       </c>
       <c r="M2">
-        <v>14.39478059419321</v>
+        <v>10.06809611809751</v>
       </c>
       <c r="N2">
-        <v>19.89759458299134</v>
+        <v>12.87460355876434</v>
       </c>
       <c r="O2">
-        <v>24.21293480060377</v>
+        <v>15.72060741468309</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.29816485131697</v>
+        <v>12.09860508703861</v>
       </c>
       <c r="C3">
-        <v>9.305270544962809</v>
+        <v>7.291810134792461</v>
       </c>
       <c r="D3">
-        <v>5.579866193628829</v>
+        <v>5.037011987077135</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.9885128249812</v>
+        <v>18.88047928437841</v>
       </c>
       <c r="G3">
-        <v>3.654639568776583</v>
+        <v>2.102662500660729</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.76669235662604</v>
+        <v>15.65899163406385</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.445337834980247</v>
+        <v>10.32831448980631</v>
       </c>
       <c r="L3">
-        <v>11.0876034429498</v>
+        <v>7.021681979574729</v>
       </c>
       <c r="M3">
-        <v>14.36206386437603</v>
+        <v>9.728490746779284</v>
       </c>
       <c r="N3">
-        <v>19.9552531405293</v>
+        <v>13.06424143455788</v>
       </c>
       <c r="O3">
-        <v>24.27748628428855</v>
+        <v>15.70321362210552</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.15807040718629</v>
+        <v>11.53165408119732</v>
       </c>
       <c r="C4">
-        <v>9.291267010532584</v>
+        <v>7.240497374332253</v>
       </c>
       <c r="D4">
-        <v>5.544901278840164</v>
+        <v>4.936417570434546</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.01434453901285</v>
+        <v>18.71595288936419</v>
       </c>
       <c r="G4">
-        <v>3.65569846970947</v>
+        <v>2.105341992156363</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.81926132713584</v>
+        <v>15.72616718856031</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.339657132723897</v>
+        <v>9.936143880415649</v>
       </c>
       <c r="L4">
-        <v>11.09391644663053</v>
+        <v>6.95926653524779</v>
       </c>
       <c r="M4">
-        <v>14.34411936345656</v>
+        <v>9.517829514682655</v>
       </c>
       <c r="N4">
-        <v>19.99232466957786</v>
+        <v>13.18342546981812</v>
       </c>
       <c r="O4">
-        <v>24.32158993867182</v>
+        <v>15.70386373310336</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.10099301625842</v>
+        <v>11.29253336571048</v>
       </c>
       <c r="C5">
-        <v>9.285528696986566</v>
+        <v>7.219490450783406</v>
       </c>
       <c r="D5">
-        <v>5.530439247176644</v>
+        <v>4.894645955386157</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.02642187991433</v>
+        <v>18.65218864932748</v>
       </c>
       <c r="G5">
-        <v>3.656143663142726</v>
+        <v>2.106456104515866</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.84170157675592</v>
+        <v>15.75596860091258</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.296544477555001</v>
+        <v>9.771560004561842</v>
       </c>
       <c r="L5">
-        <v>11.09691203313343</v>
+        <v>6.934534448288165</v>
       </c>
       <c r="M5">
-        <v>14.33735138603994</v>
+        <v>9.431574109284847</v>
       </c>
       <c r="N5">
-        <v>20.00785249128133</v>
+        <v>13.23270237677232</v>
       </c>
       <c r="O5">
-        <v>24.34068507580309</v>
+        <v>15.70688854294027</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.09151847168222</v>
+        <v>11.25233810405366</v>
       </c>
       <c r="C6">
-        <v>9.284573968898574</v>
+        <v>7.215996672304224</v>
       </c>
       <c r="D6">
-        <v>5.528025111454759</v>
+        <v>4.887663833939686</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.02852092453921</v>
+        <v>18.64179868248094</v>
       </c>
       <c r="G6">
-        <v>3.656218414790145</v>
+        <v>2.106642453722424</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.84548923704871</v>
+        <v>15.76106121824891</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.289384571732931</v>
+        <v>9.743944804130667</v>
       </c>
       <c r="L6">
-        <v>11.09743501064643</v>
+        <v>6.930470601488372</v>
       </c>
       <c r="M6">
-        <v>14.33626061087448</v>
+        <v>9.41723072229469</v>
       </c>
       <c r="N6">
-        <v>20.01045632934239</v>
+        <v>13.24092807214233</v>
       </c>
       <c r="O6">
-        <v>24.34392357137574</v>
+        <v>15.70755486230057</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.15730048491792</v>
+        <v>11.52846200125769</v>
       </c>
       <c r="C7">
-        <v>9.29118974874075</v>
+        <v>7.240214447895411</v>
       </c>
       <c r="D7">
-        <v>5.5447070957426</v>
+        <v>4.93585732940167</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.01450114157081</v>
+        <v>18.71507966111508</v>
       </c>
       <c r="G7">
-        <v>3.655704418288181</v>
+        <v>2.105356927086953</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.81955984287831</v>
+        <v>15.72655938616666</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.339075811358814</v>
+        <v>9.933943475597838</v>
       </c>
       <c r="L7">
-        <v>11.0939551327905</v>
+        <v>6.958930123549206</v>
       </c>
       <c r="M7">
-        <v>14.34402587631054</v>
+        <v>9.516667722840626</v>
       </c>
       <c r="N7">
-        <v>19.99253237751809</v>
+        <v>13.18408714358131</v>
       </c>
       <c r="O7">
-        <v>24.32184291886957</v>
+        <v>15.70389347104511</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.44747431832478</v>
+        <v>12.67608175216195</v>
       </c>
       <c r="C8">
-        <v>9.32010189555886</v>
+        <v>7.346213115427477</v>
       </c>
       <c r="D8">
-        <v>5.616430736034845</v>
+        <v>5.141598492336372</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.96625230881523</v>
+        <v>19.06725980716566</v>
       </c>
       <c r="G8">
-        <v>3.653556276540449</v>
+        <v>2.099878029422086</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.71407682330308</v>
+        <v>15.59584570396204</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.557782067429146</v>
+        <v>10.73032231861775</v>
       </c>
       <c r="L8">
-        <v>11.08231109396254</v>
+        <v>7.090640494332624</v>
       </c>
       <c r="M8">
-        <v>14.38305835853915</v>
+        <v>9.951519297030524</v>
       </c>
       <c r="N8">
-        <v>19.91712959274892</v>
+        <v>12.93943195418752</v>
       </c>
       <c r="O8">
-        <v>24.23426397896544</v>
+        <v>15.71220544262389</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.01094996203841</v>
+        <v>14.67474726180799</v>
       </c>
       <c r="C9">
-        <v>9.375712585424688</v>
+        <v>7.550450568035794</v>
       </c>
       <c r="D9">
-        <v>5.749912695028844</v>
+        <v>5.518117011732899</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.92064009540286</v>
+        <v>19.86081114822903</v>
       </c>
       <c r="G9">
-        <v>3.649772338058537</v>
+        <v>2.089803977660093</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.53936835147679</v>
+        <v>15.4227939963403</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.980818118703283</v>
+        <v>12.13791479875678</v>
       </c>
       <c r="L9">
-        <v>11.07277594381147</v>
+        <v>7.369769447551137</v>
       </c>
       <c r="M9">
-        <v>14.47635225408601</v>
+        <v>10.78211582294849</v>
       </c>
       <c r="N9">
-        <v>19.78245136393314</v>
+        <v>12.48058843971678</v>
       </c>
       <c r="O9">
-        <v>24.09802936059841</v>
+        <v>15.82228679526811</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.41716661653795</v>
+        <v>15.99237376901045</v>
       </c>
       <c r="C10">
-        <v>9.415844783084653</v>
+        <v>7.697891866785603</v>
       </c>
       <c r="D10">
-        <v>5.843292735488368</v>
+        <v>5.776794801392294</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.91701493688197</v>
+        <v>20.50527253710803</v>
       </c>
       <c r="G10">
-        <v>3.647250905934647</v>
+        <v>2.082784397712658</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.43062262284961</v>
+        <v>15.35209362952935</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.284850873073635</v>
+        <v>13.07667745732386</v>
       </c>
       <c r="L10">
-        <v>11.07383337842891</v>
+        <v>7.586424531249109</v>
       </c>
       <c r="M10">
-        <v>14.55473829292453</v>
+        <v>11.3727540139853</v>
       </c>
       <c r="N10">
-        <v>19.69146242181452</v>
+        <v>12.15496536367598</v>
       </c>
       <c r="O10">
-        <v>24.01964767087606</v>
+        <v>15.96547331484278</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.59941509284374</v>
+        <v>16.55965250650635</v>
       </c>
       <c r="C11">
-        <v>9.433931038472352</v>
+        <v>7.764325192187494</v>
       </c>
       <c r="D11">
-        <v>5.884690565140672</v>
+        <v>5.890313632114695</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.92184485526328</v>
+        <v>20.81138786207999</v>
       </c>
       <c r="G11">
-        <v>3.646159439857997</v>
+        <v>2.079667741955989</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.38541363649436</v>
+        <v>15.33346259580737</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.421063317050846</v>
+        <v>13.48292830918206</v>
       </c>
       <c r="L11">
-        <v>11.0760534795724</v>
+        <v>7.687252816650898</v>
       </c>
       <c r="M11">
-        <v>14.59244892346871</v>
+        <v>11.6361325519804</v>
       </c>
       <c r="N11">
-        <v>19.65178045748404</v>
+        <v>12.00903036647167</v>
       </c>
       <c r="O11">
-        <v>23.98871546548772</v>
+        <v>16.04518362071106</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.66799550520874</v>
+        <v>16.76989710606419</v>
       </c>
       <c r="C12">
-        <v>9.440754159858486</v>
+        <v>7.789384357079632</v>
       </c>
       <c r="D12">
-        <v>5.900206045138713</v>
+        <v>5.932684416337115</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.92460342124934</v>
+        <v>20.9291269487788</v>
       </c>
       <c r="G12">
-        <v>3.645754075184873</v>
+        <v>2.07849802668476</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.36890709321074</v>
+        <v>15.3284620400774</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.472293699336573</v>
+        <v>13.63377513878531</v>
       </c>
       <c r="L12">
-        <v>11.07714303237736</v>
+        <v>7.725739645571077</v>
       </c>
       <c r="M12">
-        <v>14.60701616660779</v>
+        <v>11.73503045256106</v>
       </c>
       <c r="N12">
-        <v>19.63699848301474</v>
+        <v>11.95405837556026</v>
       </c>
       <c r="O12">
-        <v>23.97768231150702</v>
+        <v>16.07754417903493</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.65324578404079</v>
+        <v>16.72481973480907</v>
       </c>
       <c r="C13">
-        <v>9.439285844554258</v>
+        <v>7.783991848405913</v>
       </c>
       <c r="D13">
-        <v>5.89687175433505</v>
+        <v>5.923586794346035</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.92396801206593</v>
+        <v>20.90368947008305</v>
       </c>
       <c r="G13">
-        <v>3.645841024744451</v>
+        <v>2.078749487606935</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.37243479565937</v>
+        <v>15.32944585922233</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.461276652304736</v>
+        <v>13.60142057121801</v>
       </c>
       <c r="L13">
-        <v>11.07689733093213</v>
+        <v>7.717437567743925</v>
       </c>
       <c r="M13">
-        <v>14.60386621618657</v>
+        <v>11.7137693619976</v>
       </c>
       <c r="N13">
-        <v>19.6401711786102</v>
+        <v>11.96588507198806</v>
       </c>
       <c r="O13">
-        <v>23.98002823368709</v>
+        <v>16.07047673376823</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.60506629834265</v>
+        <v>16.5770408053688</v>
       </c>
       <c r="C14">
-        <v>9.434492904302253</v>
+        <v>7.766388813805912</v>
       </c>
       <c r="D14">
-        <v>5.885970290206194</v>
+        <v>5.89381195312354</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.92205318842012</v>
+        <v>20.82103809912551</v>
       </c>
       <c r="G14">
-        <v>3.646125931150015</v>
+        <v>2.07957130151954</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.38404334241691</v>
+        <v>15.33300938691519</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.425285363640528</v>
+        <v>13.49539850609635</v>
       </c>
       <c r="L14">
-        <v>11.07613813790749</v>
+        <v>7.690413150513082</v>
       </c>
       <c r="M14">
-        <v>14.59364167406574</v>
+        <v>11.64428612420105</v>
       </c>
       <c r="N14">
-        <v>19.65055943705923</v>
+        <v>12.00450211468468</v>
       </c>
       <c r="O14">
-        <v>23.98779412438246</v>
+        <v>16.04780188539752</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.57549662696183</v>
+        <v>16.48592799880653</v>
       </c>
       <c r="C15">
-        <v>9.431553697933763</v>
+        <v>7.755593561951817</v>
       </c>
       <c r="D15">
-        <v>5.879271703931242</v>
+        <v>5.875493222806568</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.92100128853612</v>
+        <v>20.77064748214195</v>
       </c>
       <c r="G15">
-        <v>3.646301478743407</v>
+        <v>2.080076037110869</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.39123377429829</v>
+        <v>15.33546299663204</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.403192628539635</v>
+        <v>13.43006742498529</v>
       </c>
       <c r="L15">
-        <v>11.07570547917133</v>
+        <v>7.67389906251151</v>
       </c>
       <c r="M15">
-        <v>14.58741598262961</v>
+        <v>11.6016144840541</v>
       </c>
       <c r="N15">
-        <v>19.65695438375715</v>
+        <v>12.02819322794791</v>
       </c>
       <c r="O15">
-        <v>23.99263956316922</v>
+        <v>16.03419858943994</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.40519923194401</v>
+        <v>15.95465847916869</v>
       </c>
       <c r="C16">
-        <v>9.414659270904055</v>
+        <v>7.693536926055167</v>
       </c>
       <c r="D16">
-        <v>5.840565058974771</v>
+        <v>5.769290799161982</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.91682950153741</v>
+        <v>20.48552415875255</v>
       </c>
       <c r="G16">
-        <v>3.647323350315236</v>
+        <v>2.08298957593502</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.4336629046404</v>
+        <v>15.35359273701699</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.275902661698126</v>
+        <v>13.04970928460779</v>
       </c>
       <c r="L16">
-        <v>11.07372318201724</v>
+        <v>7.579879033752446</v>
       </c>
       <c r="M16">
-        <v>14.55231443092822</v>
+        <v>11.35542819614697</v>
       </c>
       <c r="N16">
-        <v>19.69409003568099</v>
+        <v>12.16454458599534</v>
       </c>
       <c r="O16">
-        <v>24.02176430185551</v>
+        <v>15.96056426418446</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.30002693388629</v>
+        <v>15.62054902167424</v>
       </c>
       <c r="C17">
-        <v>9.404250607493369</v>
+        <v>7.655299255746819</v>
       </c>
       <c r="D17">
-        <v>5.816538892960301</v>
+        <v>5.70306061794851</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.91592840674458</v>
+        <v>20.31389697682011</v>
       </c>
       <c r="G17">
-        <v>3.647964435235174</v>
+        <v>2.08479619316946</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.46078327517539</v>
+        <v>15.3682569861587</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.19724217283461</v>
+        <v>12.81104243406532</v>
       </c>
       <c r="L17">
-        <v>11.07295169014272</v>
+        <v>7.52276713071802</v>
       </c>
       <c r="M17">
-        <v>14.53130079636068</v>
+        <v>11.20298525726296</v>
       </c>
       <c r="N17">
-        <v>19.71730859216539</v>
+        <v>12.24873605091661</v>
       </c>
       <c r="O17">
-        <v>24.04084199641327</v>
+        <v>15.91918292834332</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.23929918588959</v>
+        <v>15.4253523156567</v>
       </c>
       <c r="C18">
-        <v>9.398247888569102</v>
+        <v>7.633246174216045</v>
       </c>
       <c r="D18">
-        <v>5.802618227023895</v>
+        <v>5.664576637854496</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.91602012592732</v>
+        <v>20.216402840498</v>
       </c>
       <c r="G18">
-        <v>3.648338400809354</v>
+        <v>2.085842552947732</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.47678313437756</v>
+        <v>15.37795838702076</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.151804440538081</v>
+        <v>12.6718096599837</v>
       </c>
       <c r="L18">
-        <v>11.07267171906311</v>
+        <v>7.490132855928716</v>
       </c>
       <c r="M18">
-        <v>14.51940800064058</v>
+        <v>11.11480848953853</v>
       </c>
       <c r="N18">
-        <v>19.73082424885085</v>
+        <v>12.29736870080655</v>
       </c>
       <c r="O18">
-        <v>24.05225958336226</v>
+        <v>15.89674866708779</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.21869950730589</v>
+        <v>15.35874097786099</v>
       </c>
       <c r="C19">
-        <v>9.396212774172419</v>
+        <v>7.625769302454239</v>
       </c>
       <c r="D19">
-        <v>5.797887674825325</v>
+        <v>5.651480234970193</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.91615600195897</v>
+        <v>20.18360400378843</v>
       </c>
       <c r="G19">
-        <v>3.648465918619253</v>
+        <v>2.086198091434659</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.48226925688532</v>
+        <v>15.38145743275159</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.136388184169464</v>
+        <v>12.6243317012261</v>
       </c>
       <c r="L19">
-        <v>11.07260508880244</v>
+        <v>7.479121030270315</v>
       </c>
       <c r="M19">
-        <v>14.51541481180697</v>
+        <v>11.08487068549842</v>
       </c>
       <c r="N19">
-        <v>19.73542809559708</v>
+        <v>12.31387132996889</v>
       </c>
       <c r="O19">
-        <v>24.05620171356929</v>
+        <v>15.88938512673919</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.31124757301226</v>
+        <v>15.65642836575445</v>
       </c>
       <c r="C20">
-        <v>9.405360285628523</v>
+        <v>7.659375953430477</v>
       </c>
       <c r="D20">
-        <v>5.819107059491035</v>
+        <v>5.710151455687956</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.9159612095639</v>
+        <v>20.33204088391149</v>
       </c>
       <c r="G20">
-        <v>3.647895649589057</v>
+        <v>2.084603129896994</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.45785476576298</v>
+        <v>15.36656405061829</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.205636191829077</v>
+        <v>12.83665159245294</v>
       </c>
       <c r="L20">
-        <v>11.07301687562455</v>
+        <v>7.528824696161436</v>
       </c>
       <c r="M20">
-        <v>14.53351774484261</v>
+        <v>11.21926493971816</v>
       </c>
       <c r="N20">
-        <v>19.71482028658443</v>
+        <v>12.23975237972446</v>
       </c>
       <c r="O20">
-        <v>24.03876512177284</v>
+        <v>15.92344595122218</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.61923005530549</v>
+        <v>16.62057075184128</v>
       </c>
       <c r="C21">
-        <v>9.435901416260844</v>
+        <v>7.771561946431915</v>
       </c>
       <c r="D21">
-        <v>5.889176726429053</v>
+        <v>5.902574410356584</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.92259041010714</v>
+        <v>20.84526575962817</v>
       </c>
       <c r="G21">
-        <v>3.64604203177388</v>
+        <v>2.079329634304622</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.38061698677733</v>
+        <v>15.33190605057531</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.435866762547548</v>
+        <v>13.52662092176758</v>
       </c>
       <c r="L21">
-        <v>11.07635438801382</v>
+        <v>7.698342755319769</v>
       </c>
       <c r="M21">
-        <v>14.59663714577259</v>
+        <v>11.66471831787095</v>
       </c>
       <c r="N21">
-        <v>19.64750152054732</v>
+        <v>11.99315167640263</v>
       </c>
       <c r="O21">
-        <v>23.98549462711371</v>
+        <v>16.05440235921682</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.81796130084097</v>
+        <v>17.22406954614475</v>
       </c>
       <c r="C22">
-        <v>9.455711108327321</v>
+        <v>7.84431034855365</v>
       </c>
       <c r="D22">
-        <v>5.93403055981931</v>
+        <v>6.024734505165632</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.93233982301554</v>
+        <v>21.19127553185164</v>
       </c>
       <c r="G22">
-        <v>3.644876905920664</v>
+        <v>2.075944009340287</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.33371159494633</v>
+        <v>15.32128315560266</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.584273151955177</v>
+        <v>13.96012271113095</v>
       </c>
       <c r="L22">
-        <v>11.07998546928556</v>
+        <v>7.810903149434574</v>
       </c>
       <c r="M22">
-        <v>14.63955845516631</v>
+        <v>11.950937014522</v>
       </c>
       <c r="N22">
-        <v>19.60493076164308</v>
+        <v>11.83366409155973</v>
       </c>
       <c r="O22">
-        <v>23.95464433147755</v>
+        <v>16.15270815090659</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.71214960351976</v>
+        <v>16.90439125305595</v>
       </c>
       <c r="C23">
-        <v>9.44515252154406</v>
+        <v>7.805537212791881</v>
       </c>
       <c r="D23">
-        <v>5.910179076805633</v>
+        <v>5.959870283574078</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>26.92664160683381</v>
+        <v>21.00564888969223</v>
       </c>
       <c r="G23">
-        <v>3.64549452952549</v>
+        <v>2.0777455867239</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.35841869462611</v>
+        <v>15.3258156046151</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.505270085257166</v>
+        <v>13.73034843966503</v>
       </c>
       <c r="L23">
-        <v>11.07791527126168</v>
+        <v>7.75067234307422</v>
       </c>
       <c r="M23">
-        <v>14.61650057932871</v>
+        <v>11.79864804984237</v>
       </c>
       <c r="N23">
-        <v>19.62752145678386</v>
+        <v>11.9186404715774</v>
       </c>
       <c r="O23">
-        <v>23.97074665141936</v>
+        <v>16.09905113985647</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.3061755354113</v>
+        <v>15.64021701327278</v>
       </c>
       <c r="C24">
-        <v>9.404858658112701</v>
+        <v>7.657533095162679</v>
       </c>
       <c r="D24">
-        <v>5.817946326455072</v>
+        <v>5.706946955343976</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.91594447987328</v>
+        <v>20.32383435544165</v>
       </c>
       <c r="G24">
-        <v>3.647926730764545</v>
+        <v>2.084690389743715</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.45917747402341</v>
+        <v>15.36732547695662</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.201841921018481</v>
+        <v>12.82507998371883</v>
       </c>
       <c r="L24">
-        <v>11.07298689567812</v>
+        <v>7.526085445879825</v>
       </c>
       <c r="M24">
-        <v>14.5325148755316</v>
+        <v>11.21190655679317</v>
       </c>
       <c r="N24">
-        <v>19.7159447292557</v>
+        <v>12.24381317965951</v>
       </c>
       <c r="O24">
-        <v>24.03970267649499</v>
+        <v>15.92151441975391</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.85957413722668</v>
+        <v>14.16073556721792</v>
       </c>
       <c r="C25">
-        <v>9.360791130796638</v>
+        <v>7.495630272809415</v>
       </c>
       <c r="D25">
-        <v>5.714603147397083</v>
+        <v>5.419312302075724</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>26.9277294327972</v>
+        <v>19.63522145951016</v>
       </c>
       <c r="G25">
-        <v>3.65075038684534</v>
+        <v>2.092460219724283</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.58318864327425</v>
+        <v>15.46011927821772</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.867342055486402</v>
+        <v>11.77381235777701</v>
       </c>
       <c r="L25">
-        <v>11.07393584701468</v>
+        <v>7.292139965900637</v>
       </c>
       <c r="M25">
-        <v>14.44935696434708</v>
+        <v>10.56046163206125</v>
       </c>
       <c r="N25">
-        <v>19.81748196813836</v>
+        <v>12.60260464248151</v>
       </c>
       <c r="O25">
-        <v>24.13107611901283</v>
+        <v>15.78192605815066</v>
       </c>
     </row>
   </sheetData>
